--- a/data/input/employee_absence_data_4.xlsx
+++ b/data/input/employee_absence_data_4.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43968</v>
+        <v>29505</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexia da Mota</t>
+          <t>Rodrigo Porto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>11382.71</v>
+        <v>6091.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92534</v>
+        <v>3592</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liz da Mata</t>
+          <t>Enzo Cavalcanti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,27 +511,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>8978.76</v>
+        <v>2238.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90087</v>
+        <v>72260</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luana Leão</t>
+          <t>Zoe Casa Grande</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,56 +540,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>10909.94</v>
+        <v>4212.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39453</v>
+        <v>99335</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Gabriel Novais</t>
+          <t>Caio Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45100</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>4337.08</v>
+        <v>3659.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45110</v>
+        <v>41419</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alice Moreira</t>
+          <t>Julia Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,111 +601,111 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>2564.39</v>
+        <v>2071.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59361</v>
+        <v>36391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mateus Campos</t>
+          <t>Sophia Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>5768.63</v>
+        <v>5778.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50407</v>
+        <v>65809</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bella Barros</t>
+          <t>Danilo Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>4052.84</v>
+        <v>8286.110000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5426</v>
+        <v>88283</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vitor Hugo Barros</t>
+          <t>Juan Nogueira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>5112.73</v>
+        <v>2360.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>82652</v>
+        <v>74365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marcela Souza</t>
+          <t>Thomas Pimenta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>7214</v>
+        <v>8471.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81918</v>
+        <v>77209</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Gustavo da Rocha</t>
+          <t>Dom Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>11563.85</v>
+        <v>7608.46</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_4.xlsx
+++ b/data/input/employee_absence_data_4.xlsx
@@ -464,103 +464,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29505</v>
+        <v>84127</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rodrigo Porto</t>
+          <t>Sra. Gabrielly Cavalcante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45093</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>6091.09</v>
+        <v>3031.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3592</v>
+        <v>42960</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enzo Cavalcanti</t>
+          <t>Maria Sophia Vargas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45103</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>2238.73</v>
+        <v>6858.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72260</v>
+        <v>46946</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zoe Casa Grande</t>
+          <t>Ana Beatriz Borges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45091</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>4212.95</v>
+        <v>5897.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99335</v>
+        <v>89195</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caio Farias</t>
+          <t>Dra. Mariane Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,109 +569,109 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>3659.44</v>
+        <v>5077.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41419</v>
+        <v>80471</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Julia Dias</t>
+          <t>Olivia Peixoto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>2071.02</v>
+        <v>7264.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36391</v>
+        <v>6139</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sophia Rocha</t>
+          <t>Emanuel Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>5778.54</v>
+        <v>3499.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65809</v>
+        <v>49873</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Danilo Ribeiro</t>
+          <t>Luiz Fernando da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>8286.110000000001</v>
+        <v>2564.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88283</v>
+        <v>15313</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Juan Nogueira</t>
+          <t>Dra. Emanuella da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,31 +681,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45087</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>2360.61</v>
+        <v>7593.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74365</v>
+        <v>12670</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thomas Pimenta</t>
+          <t>Helena Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45082</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>8471.49</v>
+        <v>8006.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77209</v>
+        <v>22521</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dom Mendes</t>
+          <t>Anthony Gabriel Costela</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>7608.46</v>
+        <v>6980.56</v>
       </c>
     </row>
   </sheetData>
